--- a/output/1Y_P99_KFSDIV.xlsx
+++ b/output/1Y_P99_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>10.3262</v>
       </c>
       <c r="C2" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D2" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10.462</v>
       </c>
       <c r="C3" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D3" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E3" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="F3" s="1">
-        <v>955.8402</v>
+        <v>953.9254</v>
       </c>
       <c r="H3" s="1">
-        <v>10131.5101</v>
+        <v>10091.0418</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10131.5101</v>
+        <v>10091.0418</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0132</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>10.5775</v>
       </c>
       <c r="C4" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D4" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E4" s="1">
-        <v>1924.2506</v>
+        <v>1920.3985</v>
       </c>
       <c r="F4" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="H4" s="1">
-        <v>20353.7611</v>
+        <v>20272.3022</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20353.7611</v>
+        <v>20272.3022</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.3937</v>
+        <v>10.4145</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.011</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>10.7066</v>
       </c>
       <c r="C5" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D5" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E5" s="1">
-        <v>2869.6536</v>
+        <v>2863.9104</v>
       </c>
       <c r="F5" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="H5" s="1">
-        <v>30724.2334</v>
+        <v>30601.4553</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30724.2334</v>
+        <v>30601.4553</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.4542</v>
+        <v>10.4752</v>
       </c>
       <c r="M5" s="1">
         <v>0.2</v>
       </c>
       <c r="N5" s="1">
-        <v>346.3651</v>
+        <v>345.6717</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9653.634899999999</v>
+        <v>-9654.328299999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0122</v>
+        <v>0.0109</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>11.1511</v>
       </c>
       <c r="C6" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D6" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E6" s="1">
-        <v>3803.6569</v>
+        <v>3796.0419</v>
       </c>
       <c r="F6" s="1">
-        <v>900.6550999999999</v>
+        <v>898.8418</v>
       </c>
       <c r="H6" s="1">
-        <v>42414.9589</v>
+        <v>42245.3911</v>
       </c>
       <c r="I6" s="1">
-        <v>346.3651</v>
+        <v>345.6717</v>
       </c>
       <c r="J6" s="1">
-        <v>42761.324</v>
+        <v>42591.0628</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.5162</v>
+        <v>10.5373</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10043.2956</v>
+        <v>-10043.209</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.05</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>11.5294</v>
       </c>
       <c r="C7" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D7" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E7" s="1">
-        <v>4704.3121</v>
+        <v>4694.8837</v>
       </c>
       <c r="F7" s="1">
-        <v>871.0955</v>
+        <v>869.3537</v>
       </c>
       <c r="H7" s="1">
-        <v>54237.8958</v>
+        <v>54020.7404</v>
       </c>
       <c r="I7" s="1">
-        <v>303.0695</v>
+        <v>302.4628</v>
       </c>
       <c r="J7" s="1">
-        <v>54540.9653</v>
+        <v>54323.2032</v>
       </c>
       <c r="K7" s="1">
-        <v>50043.2956</v>
+        <v>50043.209</v>
       </c>
       <c r="L7" s="1">
-        <v>10.6377</v>
+        <v>10.6591</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10043.2956</v>
+        <v>-10043.209</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0337</v>
+        <v>0.0329</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>10.9136</v>
       </c>
       <c r="C8" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D8" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E8" s="1">
-        <v>5575.4076</v>
+        <v>5564.2374</v>
       </c>
       <c r="F8" s="1">
-        <v>920.2551</v>
+        <v>918.4041999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>60847.7683</v>
+        <v>60604.5613</v>
       </c>
       <c r="I8" s="1">
-        <v>259.7738</v>
+        <v>259.2538</v>
       </c>
       <c r="J8" s="1">
-        <v>61107.5421</v>
+        <v>60863.8151</v>
       </c>
       <c r="K8" s="1">
-        <v>60086.5913</v>
+        <v>60086.4179</v>
       </c>
       <c r="L8" s="1">
-        <v>10.7771</v>
+        <v>10.7987</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>2116.9404</v>
+        <v>2112.6977</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7926.3552</v>
+        <v>-7930.5113</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0532</v>
+        <v>-0.0538</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>11.2587</v>
       </c>
       <c r="C9" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D9" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E9" s="1">
-        <v>6495.6627</v>
+        <v>6482.6416</v>
       </c>
       <c r="F9" s="1">
-        <v>929.653</v>
+        <v>927.7077</v>
       </c>
       <c r="H9" s="1">
-        <v>73132.06759999999</v>
+        <v>72840.25780000001</v>
       </c>
       <c r="I9" s="1">
-        <v>2333.4186</v>
+        <v>2328.7425</v>
       </c>
       <c r="J9" s="1">
-        <v>75465.4862</v>
+        <v>75169.0003</v>
       </c>
       <c r="K9" s="1">
-        <v>70129.8869</v>
+        <v>70129.6269</v>
       </c>
       <c r="L9" s="1">
-        <v>10.7964</v>
+        <v>10.8181</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10466.6837</v>
+        <v>-10465.7485</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0613</v>
+        <v>0.0608</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>11.6434</v>
       </c>
       <c r="C10" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D10" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E10" s="1">
-        <v>7425.3156</v>
+        <v>7410.3493</v>
       </c>
       <c r="F10" s="1">
-        <v>898.9371</v>
+        <v>897.0616</v>
       </c>
       <c r="H10" s="1">
-        <v>86455.9198</v>
+        <v>86108.99980000001</v>
       </c>
       <c r="I10" s="1">
-        <v>1866.7349</v>
+        <v>1862.994</v>
       </c>
       <c r="J10" s="1">
-        <v>88322.6547</v>
+        <v>87971.9938</v>
       </c>
       <c r="K10" s="1">
-        <v>80596.57060000001</v>
+        <v>80595.3754</v>
       </c>
       <c r="L10" s="1">
-        <v>10.8543</v>
+        <v>10.8761</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10466.6837</v>
+        <v>-10465.7485</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0334</v>
+        <v>0.0329</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>11.3141</v>
       </c>
       <c r="C11" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D11" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E11" s="1">
-        <v>8324.252699999999</v>
+        <v>8307.410900000001</v>
       </c>
       <c r="F11" s="1">
-        <v>925.1009</v>
+        <v>923.1660000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>94181.4271</v>
+        <v>93803.13</v>
       </c>
       <c r="I11" s="1">
-        <v>1400.0512</v>
+        <v>1397.2455</v>
       </c>
       <c r="J11" s="1">
-        <v>95581.4783</v>
+        <v>95200.37549999999</v>
       </c>
       <c r="K11" s="1">
-        <v>91063.25440000001</v>
+        <v>91061.12390000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.9395</v>
+        <v>10.9614</v>
       </c>
       <c r="M11" s="1">
         <v>0.4</v>
       </c>
       <c r="N11" s="1">
-        <v>2673.1136</v>
+        <v>2667.7257</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7793.5701</v>
+        <v>-7798.0228</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0279</v>
+        <v>-0.0283</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>11.003</v>
       </c>
       <c r="C12" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D12" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E12" s="1">
-        <v>9249.353499999999</v>
+        <v>9230.5769</v>
       </c>
       <c r="F12" s="1">
-        <v>1072.7293</v>
+        <v>1070.2498</v>
       </c>
       <c r="H12" s="1">
-        <v>101770.6369</v>
+        <v>101360.9649</v>
       </c>
       <c r="I12" s="1">
-        <v>3606.4811</v>
+        <v>3599.2227</v>
       </c>
       <c r="J12" s="1">
-        <v>105377.118</v>
+        <v>104960.1877</v>
       </c>
       <c r="K12" s="1">
-        <v>101529.9381</v>
+        <v>101526.8724</v>
       </c>
       <c r="L12" s="1">
-        <v>10.977</v>
+        <v>10.999</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11803.2405</v>
+        <v>-11799.6114</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0019</v>
+        <v>-0.0023</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>11.1102</v>
       </c>
       <c r="C13" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D13" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E13" s="1">
-        <v>10322.0828</v>
+        <v>10300.8267</v>
       </c>
       <c r="F13" s="1">
-        <v>1062.3692</v>
+        <v>1059.9247</v>
       </c>
       <c r="H13" s="1">
-        <v>114680.4048</v>
+        <v>114215.5668</v>
       </c>
       <c r="I13" s="1">
-        <v>1803.2405</v>
+        <v>1799.6114</v>
       </c>
       <c r="J13" s="1">
-        <v>116483.6453</v>
+        <v>116015.1781</v>
       </c>
       <c r="K13" s="1">
-        <v>113333.1786</v>
+        <v>113326.4838</v>
       </c>
       <c r="L13" s="1">
-        <v>10.9797</v>
+        <v>11.0017</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11803.2405</v>
+        <v>-11799.6114</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.009599999999999999</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>10.623</v>
       </c>
       <c r="C14" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D14" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E14" s="1">
-        <v>11384.452</v>
+        <v>11360.7514</v>
       </c>
       <c r="F14" s="1">
-        <v>-11384.452</v>
+        <v>-11360.7514</v>
       </c>
       <c r="H14" s="1">
-        <v>120937.034</v>
+        <v>120443.2781</v>
       </c>
       <c r="I14" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>120937.034</v>
+        <v>120443.2781</v>
       </c>
       <c r="K14" s="1">
-        <v>125136.4192</v>
+        <v>125126.0951</v>
       </c>
       <c r="L14" s="1">
-        <v>10.9919</v>
+        <v>11.0139</v>
       </c>
       <c r="M14" s="1">
         <v>0.1</v>
       </c>
       <c r="N14" s="1">
-        <v>928.9875</v>
+        <v>927.0744</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121866.0215</v>
+        <v>121370.3525</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0439</v>
+        <v>-0.0442</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>10.3262</v>
       </c>
       <c r="C2" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D2" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>10.462</v>
       </c>
       <c r="C3" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D3" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E3" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="F3" s="1">
-        <v>943.2699</v>
+        <v>949.0339</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10131.5101</v>
+        <v>10091.0418</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10131.5101</v>
+        <v>10091.0418</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9868.4899</v>
+        <v>-9948.7228</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0132</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>10.5775</v>
       </c>
       <c r="C4" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D4" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E4" s="1">
-        <v>1911.6804</v>
+        <v>1915.507</v>
       </c>
       <c r="F4" s="1">
-        <v>924.5286</v>
+        <v>926.3978</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20220.7991</v>
+        <v>20220.6664</v>
       </c>
       <c r="I4" s="1">
-        <v>131.5101</v>
+        <v>51.2772</v>
       </c>
       <c r="J4" s="1">
-        <v>20352.3092</v>
+        <v>20271.9436</v>
       </c>
       <c r="K4" s="1">
-        <v>19868.4899</v>
+        <v>19948.7228</v>
       </c>
       <c r="L4" s="1">
-        <v>10.3932</v>
+        <v>10.4143</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9779.2009</v>
+        <v>-9818.6129</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.011</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>10.7066</v>
       </c>
       <c r="C5" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D5" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E5" s="1">
-        <v>2836.2089</v>
+        <v>2841.9048</v>
       </c>
       <c r="F5" s="1">
-        <v>899.8044</v>
+        <v>901.5907999999999</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>30366.1546</v>
+        <v>30366.3215</v>
       </c>
       <c r="I5" s="1">
-        <v>352.3092</v>
+        <v>232.6644</v>
       </c>
       <c r="J5" s="1">
-        <v>30718.4638</v>
+        <v>30598.9859</v>
       </c>
       <c r="K5" s="1">
-        <v>29647.6908</v>
+        <v>29767.3356</v>
       </c>
       <c r="L5" s="1">
-        <v>10.4533</v>
+        <v>10.4744</v>
       </c>
       <c r="M5" s="1">
         <v>0.2</v>
       </c>
       <c r="N5" s="1">
-        <v>344.1025</v>
+        <v>344.7913</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9289.743</v>
+        <v>-9327.565500000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0121</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>11.1511</v>
       </c>
       <c r="C6" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D6" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E6" s="1">
-        <v>3736.0133</v>
+        <v>3743.4957</v>
       </c>
       <c r="F6" s="1">
-        <v>747.8493</v>
+        <v>749.3517000000001</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>41660.6579</v>
+        <v>41660.6147</v>
       </c>
       <c r="I6" s="1">
-        <v>1062.5663</v>
+        <v>905.0989</v>
       </c>
       <c r="J6" s="1">
-        <v>42723.2242</v>
+        <v>42565.7136</v>
       </c>
       <c r="K6" s="1">
-        <v>39281.5362</v>
+        <v>39439.6923</v>
       </c>
       <c r="L6" s="1">
-        <v>10.5143</v>
+        <v>10.5355</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8339.3421</v>
+        <v>-8372.881299999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0492</v>
+        <v>0.0484</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>11.5294</v>
       </c>
       <c r="C7" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D7" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E7" s="1">
-        <v>4483.8626</v>
+        <v>4492.8474</v>
       </c>
       <c r="F7" s="1">
-        <v>720.2243999999999</v>
+        <v>721.6873000000001</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>51696.2452</v>
+        <v>51696.0499</v>
       </c>
       <c r="I7" s="1">
-        <v>2723.2242</v>
+        <v>2532.2176</v>
       </c>
       <c r="J7" s="1">
-        <v>54419.4694</v>
+        <v>54228.2675</v>
       </c>
       <c r="K7" s="1">
-        <v>47620.8783</v>
+        <v>47812.5737</v>
       </c>
       <c r="L7" s="1">
-        <v>10.6205</v>
+        <v>10.6419</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8303.826800000001</v>
+        <v>-8337.292100000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0322</v>
+        <v>0.0316</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>10.9136</v>
       </c>
       <c r="C8" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D8" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E8" s="1">
-        <v>5204.0869</v>
+        <v>5214.5346</v>
       </c>
       <c r="F8" s="1">
-        <v>1209.9286</v>
+        <v>1212.3186</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>56795.3233</v>
+        <v>56795.6685</v>
       </c>
       <c r="I8" s="1">
-        <v>4419.3974</v>
+        <v>4194.9255</v>
       </c>
       <c r="J8" s="1">
-        <v>61214.7206</v>
+        <v>60990.594</v>
       </c>
       <c r="K8" s="1">
-        <v>55924.7051</v>
+        <v>56149.8657</v>
       </c>
       <c r="L8" s="1">
-        <v>10.7463</v>
+        <v>10.768</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>2017.7382</v>
+        <v>2021.7813</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11186.9386</v>
+        <v>-11235.5285</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0497</v>
+        <v>-0.0504</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>11.2587</v>
       </c>
       <c r="C9" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D9" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E9" s="1">
-        <v>6414.0155</v>
+        <v>6426.8532</v>
       </c>
       <c r="F9" s="1">
-        <v>691.6636999999999</v>
+        <v>692.9915999999999</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>72212.8354</v>
+        <v>72213.4083</v>
       </c>
       <c r="I9" s="1">
-        <v>3232.4588</v>
+        <v>2959.397</v>
       </c>
       <c r="J9" s="1">
-        <v>75445.2941</v>
+        <v>75172.8052</v>
       </c>
       <c r="K9" s="1">
-        <v>69129.3818</v>
+        <v>69407.1756</v>
       </c>
       <c r="L9" s="1">
-        <v>10.7779</v>
+        <v>10.7996</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7787.2338</v>
+        <v>-7817.8457</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0594</v>
+        <v>0.0589</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>11.6434</v>
       </c>
       <c r="C10" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D10" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E10" s="1">
-        <v>7105.6792</v>
+        <v>7119.8448</v>
       </c>
       <c r="F10" s="1">
-        <v>624.0217</v>
+        <v>625.3553000000001</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>82734.2654</v>
+        <v>82733.30839999999</v>
       </c>
       <c r="I10" s="1">
-        <v>5445.225</v>
+        <v>5141.5513</v>
       </c>
       <c r="J10" s="1">
-        <v>88179.4903</v>
+        <v>87874.8597</v>
       </c>
       <c r="K10" s="1">
-        <v>76916.6156</v>
+        <v>77225.02129999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.8247</v>
+        <v>10.8464</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7265.7346</v>
+        <v>-7295.8331</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.032</v>
+        <v>0.0317</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>11.3141</v>
       </c>
       <c r="C11" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D11" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E11" s="1">
-        <v>7729.7009</v>
+        <v>7745.2001</v>
       </c>
       <c r="F11" s="1">
-        <v>1108.828</v>
+        <v>1111.0192</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>87454.60950000001</v>
+        <v>87454.92720000001</v>
       </c>
       <c r="I11" s="1">
-        <v>8179.4903</v>
+        <v>7845.7182</v>
       </c>
       <c r="J11" s="1">
-        <v>95634.0998</v>
+        <v>95300.64539999999</v>
       </c>
       <c r="K11" s="1">
-        <v>84182.35030000001</v>
+        <v>84520.8544</v>
       </c>
       <c r="L11" s="1">
-        <v>10.8908</v>
+        <v>10.9127</v>
       </c>
       <c r="M11" s="1">
         <v>0.4</v>
       </c>
       <c r="N11" s="1">
-        <v>2558.0445</v>
+        <v>2563.1441</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9987.346</v>
+        <v>-10032.2578</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0259</v>
+        <v>-0.0263</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>11.003</v>
       </c>
       <c r="C12" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D12" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E12" s="1">
-        <v>8838.528899999999</v>
+        <v>8856.219300000001</v>
       </c>
       <c r="F12" s="1">
-        <v>1158.7446</v>
+        <v>1161.0833</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>97250.3337</v>
+        <v>97250.1439</v>
       </c>
       <c r="I12" s="1">
-        <v>8192.1443</v>
+        <v>7813.4604</v>
       </c>
       <c r="J12" s="1">
-        <v>105442.478</v>
+        <v>105063.6043</v>
       </c>
       <c r="K12" s="1">
-        <v>96727.7408</v>
+        <v>97116.25629999999</v>
       </c>
       <c r="L12" s="1">
-        <v>10.9439</v>
+        <v>10.9659</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12749.6663</v>
+        <v>-12801.0599</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0018</v>
+        <v>-0.0023</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>11.1102</v>
       </c>
       <c r="C13" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D13" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E13" s="1">
-        <v>9997.273499999999</v>
+        <v>10017.3026</v>
       </c>
       <c r="F13" s="1">
-        <v>803.6122</v>
+        <v>805.2082</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>111071.7077</v>
+        <v>111071.8514</v>
       </c>
       <c r="I13" s="1">
-        <v>5442.478</v>
+        <v>5012.4005</v>
       </c>
       <c r="J13" s="1">
-        <v>116514.1857</v>
+        <v>116084.2519</v>
       </c>
       <c r="K13" s="1">
-        <v>109477.4072</v>
+        <v>109917.3162</v>
       </c>
       <c r="L13" s="1">
-        <v>10.9507</v>
+        <v>10.9727</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8928.372600000001</v>
+        <v>-8963.9804</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.009299999999999999</v>
+        <v>0.0089</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>10.623</v>
       </c>
       <c r="C14" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D14" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E14" s="1">
-        <v>10800.8857</v>
+        <v>10822.5108</v>
       </c>
       <c r="F14" s="1">
-        <v>-10800.8857</v>
+        <v>-10822.5108</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>114737.8085</v>
+        <v>114737.013</v>
       </c>
       <c r="I14" s="1">
-        <v>6514.1053</v>
+        <v>6048.4201</v>
       </c>
       <c r="J14" s="1">
-        <v>121251.9138</v>
+        <v>120785.4331</v>
       </c>
       <c r="K14" s="1">
-        <v>118405.7798</v>
+        <v>118881.2966</v>
       </c>
       <c r="L14" s="1">
-        <v>10.9626</v>
+        <v>10.9846</v>
       </c>
       <c r="M14" s="1">
         <v>0.1</v>
       </c>
       <c r="N14" s="1">
-        <v>899.7546</v>
+        <v>901.5572</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>115637.5631</v>
+        <v>115638.5702</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0416</v>
+        <v>-0.042</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>10.3262</v>
       </c>
       <c r="C2" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D2" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>10.462</v>
       </c>
       <c r="C3" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D3" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E3" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="F3" s="1">
-        <v>948.0491</v>
+        <v>953.8227000000001</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10131.5101</v>
+        <v>10091.0418</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10131.5101</v>
+        <v>10091.0418</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9918.4899</v>
+        <v>-9998.9234</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0132</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>10.5775</v>
       </c>
       <c r="C4" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D4" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E4" s="1">
-        <v>1916.4596</v>
+        <v>1920.2958</v>
       </c>
       <c r="F4" s="1">
-        <v>933.954</v>
+        <v>935.8423</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20271.3511</v>
+        <v>20271.2181</v>
       </c>
       <c r="I4" s="1">
-        <v>81.51009999999999</v>
+        <v>1.0766</v>
       </c>
       <c r="J4" s="1">
-        <v>20352.8612</v>
+        <v>20272.2947</v>
       </c>
       <c r="K4" s="1">
-        <v>19918.4899</v>
+        <v>19998.9234</v>
       </c>
       <c r="L4" s="1">
-        <v>10.3934</v>
+        <v>10.4145</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9878.8989</v>
+        <v>-9918.711600000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.011</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>10.7066</v>
       </c>
       <c r="C5" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D5" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E5" s="1">
-        <v>2850.4136</v>
+        <v>2856.138</v>
       </c>
       <c r="F5" s="1">
-        <v>913.7133</v>
+        <v>915.5276</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>30518.2384</v>
+        <v>30518.4062</v>
       </c>
       <c r="I5" s="1">
-        <v>202.6112</v>
+        <v>82.36490000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>30720.8496</v>
+        <v>30600.7711</v>
       </c>
       <c r="K5" s="1">
-        <v>29797.3888</v>
+        <v>29917.6351</v>
       </c>
       <c r="L5" s="1">
-        <v>10.4537</v>
+        <v>10.4749</v>
       </c>
       <c r="M5" s="1">
         <v>0.2</v>
       </c>
       <c r="N5" s="1">
-        <v>344.9627</v>
+        <v>345.6532</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9437.8001</v>
+        <v>-9476.218000000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0121</v>
+        <v>0.0109</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>11.1511</v>
       </c>
       <c r="C6" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D6" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E6" s="1">
-        <v>3764.1269</v>
+        <v>3771.6656</v>
       </c>
       <c r="F6" s="1">
-        <v>764.799</v>
+        <v>766.3355</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>41974.1557</v>
+        <v>41974.1121</v>
       </c>
       <c r="I6" s="1">
-        <v>764.8111</v>
+        <v>606.147</v>
       </c>
       <c r="J6" s="1">
-        <v>42738.9668</v>
+        <v>42580.2591</v>
       </c>
       <c r="K6" s="1">
-        <v>39580.1516</v>
+        <v>39739.5062</v>
       </c>
       <c r="L6" s="1">
-        <v>10.5151</v>
+        <v>10.5363</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8528.3506</v>
+        <v>-8562.649299999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0496</v>
+        <v>0.0488</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>11.5294</v>
       </c>
       <c r="C7" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D7" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E7" s="1">
-        <v>4528.926</v>
+        <v>4538.0011</v>
       </c>
       <c r="F7" s="1">
-        <v>740.6473999999999</v>
+        <v>742.1514</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>52215.7989</v>
+        <v>52215.6017</v>
       </c>
       <c r="I7" s="1">
-        <v>2236.4605</v>
+        <v>2043.4977</v>
       </c>
       <c r="J7" s="1">
-        <v>54452.2594</v>
+        <v>54259.0993</v>
       </c>
       <c r="K7" s="1">
-        <v>48108.5022</v>
+        <v>48302.1556</v>
       </c>
       <c r="L7" s="1">
-        <v>10.6225</v>
+        <v>10.6439</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8539.293900000001</v>
+        <v>-8573.7045</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0325</v>
+        <v>0.0319</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>10.9136</v>
       </c>
       <c r="C8" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D8" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E8" s="1">
-        <v>5269.5733</v>
+        <v>5280.1525</v>
       </c>
       <c r="F8" s="1">
-        <v>1241.4582</v>
+        <v>1231.7492</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>57510.0155</v>
+        <v>57510.3651</v>
       </c>
       <c r="I8" s="1">
-        <v>3697.1666</v>
+        <v>3469.7931</v>
       </c>
       <c r="J8" s="1">
-        <v>61207.1821</v>
+        <v>60980.1582</v>
       </c>
       <c r="K8" s="1">
-        <v>56647.7961</v>
+        <v>56875.8601</v>
       </c>
       <c r="L8" s="1">
-        <v>10.75</v>
+        <v>10.7716</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>2038.0167</v>
+        <v>2042.1005</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11510.7617</v>
+        <v>-11427.6926</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0503</v>
+        <v>-0.051</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>11.2587</v>
       </c>
       <c r="C9" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D9" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E9" s="1">
-        <v>6511.0315</v>
+        <v>6511.9017</v>
       </c>
       <c r="F9" s="1">
-        <v>720.2483999999999</v>
+        <v>733.7942</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>73305.0998</v>
+        <v>73169.0297</v>
       </c>
       <c r="I9" s="1">
-        <v>2186.4049</v>
+        <v>2042.1005</v>
       </c>
       <c r="J9" s="1">
-        <v>75491.5047</v>
+        <v>75211.1302</v>
       </c>
       <c r="K9" s="1">
-        <v>70196.5745</v>
+        <v>70345.6532</v>
       </c>
       <c r="L9" s="1">
-        <v>10.7812</v>
+        <v>10.8026</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8109.0601</v>
+        <v>-8278.1523</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0602</v>
+        <v>0.0596</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>11.6434</v>
       </c>
       <c r="C10" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D10" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E10" s="1">
-        <v>7231.2799</v>
+        <v>7245.6959</v>
       </c>
       <c r="F10" s="1">
-        <v>654.8323</v>
+        <v>656.2291</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>84196.6844</v>
+        <v>84195.7105</v>
       </c>
       <c r="I10" s="1">
-        <v>4077.3448</v>
+        <v>3763.9482</v>
       </c>
       <c r="J10" s="1">
-        <v>88274.0292</v>
+        <v>87959.6587</v>
       </c>
       <c r="K10" s="1">
-        <v>78305.6346</v>
+        <v>78623.8055</v>
       </c>
       <c r="L10" s="1">
-        <v>10.8287</v>
+        <v>10.8511</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7624.4739</v>
+        <v>-7656.0281</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0325</v>
+        <v>0.0323</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>11.3141</v>
       </c>
       <c r="C11" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D11" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E11" s="1">
-        <v>7886.1122</v>
+        <v>7901.925</v>
       </c>
       <c r="F11" s="1">
-        <v>1153.9586</v>
+        <v>1156.2395</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>89224.2616</v>
+        <v>89224.5857</v>
       </c>
       <c r="I11" s="1">
-        <v>6452.8709</v>
+        <v>6107.9201</v>
       </c>
       <c r="J11" s="1">
-        <v>95677.1324</v>
+        <v>95332.5059</v>
       </c>
       <c r="K11" s="1">
-        <v>85930.1085</v>
+        <v>86279.8336</v>
       </c>
       <c r="L11" s="1">
-        <v>10.8964</v>
+        <v>10.9188</v>
       </c>
       <c r="M11" s="1">
         <v>0.4</v>
       </c>
       <c r="N11" s="1">
-        <v>2603.2608</v>
+        <v>2608.4505</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10452.7418</v>
+        <v>-10499.6055</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0264</v>
+        <v>-0.0268</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>11.003</v>
       </c>
       <c r="C12" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D12" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E12" s="1">
-        <v>9040.0707</v>
+        <v>9058.164500000001</v>
       </c>
       <c r="F12" s="1">
-        <v>1210.9213</v>
+        <v>1213.365</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>99467.89810000001</v>
+        <v>99467.704</v>
       </c>
       <c r="I12" s="1">
-        <v>6000.1291</v>
+        <v>5608.3147</v>
       </c>
       <c r="J12" s="1">
-        <v>105468.0272</v>
+        <v>105076.0187</v>
       </c>
       <c r="K12" s="1">
-        <v>98986.11109999999</v>
+        <v>99387.88959999999</v>
       </c>
       <c r="L12" s="1">
-        <v>10.9497</v>
+        <v>10.9722</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-13323.7673</v>
+        <v>-13377.4708</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.002</v>
+        <v>-0.0024</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>11.1102</v>
       </c>
       <c r="C13" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D13" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E13" s="1">
-        <v>10250.992</v>
+        <v>10271.5295</v>
       </c>
       <c r="F13" s="1">
-        <v>851.9245</v>
+        <v>853.6169</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>113890.5717</v>
+        <v>113890.7191</v>
       </c>
       <c r="I13" s="1">
-        <v>2676.3618</v>
+        <v>2230.8439</v>
       </c>
       <c r="J13" s="1">
-        <v>116566.9335</v>
+        <v>116121.5629</v>
       </c>
       <c r="K13" s="1">
-        <v>112309.8784</v>
+        <v>112765.3603</v>
       </c>
       <c r="L13" s="1">
-        <v>10.956</v>
+        <v>10.9784</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9465.137199999999</v>
+        <v>-9502.890600000001</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0095</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,49 +2854,49 @@
         <v>10.623</v>
       </c>
       <c r="C14" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D14" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E14" s="1">
-        <v>11102.9166</v>
+        <v>11125.1464</v>
       </c>
       <c r="F14" s="1">
-        <v>-11102.9166</v>
+        <v>-11125.1464</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>117946.2828</v>
+        <v>117945.465</v>
       </c>
       <c r="I14" s="1">
-        <v>3211.2246</v>
+        <v>2727.9533</v>
       </c>
       <c r="J14" s="1">
-        <v>121157.5074</v>
+        <v>120673.4183</v>
       </c>
       <c r="K14" s="1">
-        <v>121775.0155</v>
+        <v>122268.251</v>
       </c>
       <c r="L14" s="1">
-        <v>10.9678</v>
+        <v>10.9903</v>
       </c>
       <c r="M14" s="1">
         <v>0.1</v>
       </c>
       <c r="N14" s="1">
-        <v>922.5893</v>
+        <v>924.4376999999999</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>118868.8721</v>
+        <v>118869.9027</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0427</v>
+        <v>-0.0432</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>10.3262</v>
       </c>
       <c r="C2" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D2" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>10.462</v>
       </c>
       <c r="C3" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D3" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E3" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="F3" s="1">
-        <v>952.8283</v>
+        <v>953.9254</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10131.5101</v>
+        <v>10091.0418</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10131.5101</v>
+        <v>10091.0418</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9968.4899</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0132</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>10.5775</v>
       </c>
       <c r="C4" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D4" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E4" s="1">
-        <v>1921.2388</v>
+        <v>1920.3985</v>
       </c>
       <c r="F4" s="1">
-        <v>943.4268</v>
+        <v>943.5119</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20321.9031</v>
+        <v>20272.3022</v>
       </c>
       <c r="I4" s="1">
-        <v>31.5101</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20353.4132</v>
+        <v>20272.3022</v>
       </c>
       <c r="K4" s="1">
-        <v>19968.4899</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.3935</v>
+        <v>10.4145</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9979.0969</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.011</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>10.7066</v>
       </c>
       <c r="C5" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D5" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E5" s="1">
-        <v>2864.6656</v>
+        <v>2863.9104</v>
       </c>
       <c r="F5" s="1">
-        <v>927.7625</v>
+        <v>932.1315</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>30670.8283</v>
+        <v>30601.4553</v>
       </c>
       <c r="I5" s="1">
-        <v>52.4132</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30723.2415</v>
+        <v>30601.4553</v>
       </c>
       <c r="K5" s="1">
-        <v>29947.5868</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.4541</v>
+        <v>10.4752</v>
       </c>
       <c r="M5" s="1">
         <v>0.2</v>
       </c>
       <c r="N5" s="1">
-        <v>345.823</v>
+        <v>345.6717</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9587.358700000001</v>
+        <v>-9654.328299999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0122</v>
+        <v>0.0109</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>11.1511</v>
       </c>
       <c r="C6" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D6" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E6" s="1">
-        <v>3792.428</v>
+        <v>3796.0419</v>
       </c>
       <c r="F6" s="1">
-        <v>782.0131</v>
+        <v>787.5655</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>42289.7443</v>
+        <v>42245.3911</v>
       </c>
       <c r="I6" s="1">
-        <v>465.0545</v>
+        <v>345.6717</v>
       </c>
       <c r="J6" s="1">
-        <v>42754.7988</v>
+        <v>42591.0628</v>
       </c>
       <c r="K6" s="1">
-        <v>39880.7685</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.5159</v>
+        <v>10.5373</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8720.3058</v>
+        <v>-8799.8632</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0499</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>11.5294</v>
       </c>
       <c r="C7" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D7" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E7" s="1">
-        <v>4574.4411</v>
+        <v>4583.6074</v>
       </c>
       <c r="F7" s="1">
-        <v>761.4958</v>
+        <v>763.0419000000001</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>52740.5612</v>
+        <v>52740.3619</v>
       </c>
       <c r="I7" s="1">
-        <v>1744.7487</v>
+        <v>1545.8085</v>
       </c>
       <c r="J7" s="1">
-        <v>54485.3098</v>
+        <v>54286.1704</v>
       </c>
       <c r="K7" s="1">
-        <v>48601.0743</v>
+        <v>48799.8632</v>
       </c>
       <c r="L7" s="1">
-        <v>10.6245</v>
+        <v>10.6466</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8779.6656</v>
+        <v>-8815.0412</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0328</v>
+        <v>0.0322</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>10.9136</v>
       </c>
       <c r="C8" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D8" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E8" s="1">
-        <v>5335.9369</v>
+        <v>5346.6493</v>
       </c>
       <c r="F8" s="1">
-        <v>1187.9749</v>
+        <v>1164.1687</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>58234.2807</v>
+        <v>58234.6346</v>
       </c>
       <c r="I8" s="1">
-        <v>2965.0831</v>
+        <v>2730.7673</v>
       </c>
       <c r="J8" s="1">
-        <v>61199.3638</v>
+        <v>60965.4019</v>
       </c>
       <c r="K8" s="1">
-        <v>57380.7399</v>
+        <v>57614.9044</v>
       </c>
       <c r="L8" s="1">
-        <v>10.7536</v>
+        <v>10.7759</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>2058.4985</v>
+        <v>2062.6233</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10906.5846</v>
+        <v>-10668.1439</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.051</v>
+        <v>-0.0517</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>11.2587</v>
       </c>
       <c r="C9" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D9" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E9" s="1">
-        <v>6523.9118</v>
+        <v>6510.818</v>
       </c>
       <c r="F9" s="1">
-        <v>835.5028</v>
+        <v>863.268</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>73450.1133</v>
+        <v>73156.8535</v>
       </c>
       <c r="I9" s="1">
-        <v>2058.4985</v>
+        <v>2062.6233</v>
       </c>
       <c r="J9" s="1">
-        <v>75508.6118</v>
+        <v>75219.4768</v>
       </c>
       <c r="K9" s="1">
-        <v>70345.823</v>
+        <v>70345.67170000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.7828</v>
+        <v>10.8044</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9406.675800000001</v>
+        <v>-9738.785599999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0605</v>
+        <v>0.0599</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>11.6434</v>
       </c>
       <c r="C10" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D10" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E10" s="1">
-        <v>7359.4146</v>
+        <v>7374.086</v>
       </c>
       <c r="F10" s="1">
-        <v>686.798</v>
+        <v>688.2605</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>85688.6084</v>
+        <v>85687.6173</v>
       </c>
       <c r="I10" s="1">
-        <v>2651.8227</v>
+        <v>2323.8378</v>
       </c>
       <c r="J10" s="1">
-        <v>88340.431</v>
+        <v>88011.455</v>
       </c>
       <c r="K10" s="1">
-        <v>79752.4988</v>
+        <v>80084.45729999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.8368</v>
+        <v>10.8603</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7996.6643</v>
+        <v>-8029.7284</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0331</v>
+        <v>0.0328</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>11.3141</v>
       </c>
       <c r="C11" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D11" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E11" s="1">
-        <v>8046.2127</v>
+        <v>8062.3465</v>
       </c>
       <c r="F11" s="1">
-        <v>1200.8441</v>
+        <v>1203.2183</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>91035.6548</v>
+        <v>91035.9856</v>
       </c>
       <c r="I11" s="1">
-        <v>4655.1584</v>
+        <v>4294.1094</v>
       </c>
       <c r="J11" s="1">
-        <v>95690.8132</v>
+        <v>95330.095</v>
       </c>
       <c r="K11" s="1">
-        <v>87749.16310000001</v>
+        <v>88114.1856</v>
       </c>
       <c r="L11" s="1">
-        <v>10.9056</v>
+        <v>10.9291</v>
       </c>
       <c r="M11" s="1">
         <v>0.4</v>
       </c>
       <c r="N11" s="1">
-        <v>2649.3893</v>
+        <v>2654.671</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10937.0813</v>
+        <v>-10985.9746</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0269</v>
+        <v>-0.0274</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>11.003</v>
       </c>
       <c r="C12" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D12" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E12" s="1">
-        <v>9247.0568</v>
+        <v>9265.5648</v>
       </c>
       <c r="F12" s="1">
-        <v>1246.7579</v>
+        <v>1207.0761</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>101745.366</v>
+        <v>101745.1675</v>
       </c>
       <c r="I12" s="1">
-        <v>3718.0771</v>
+        <v>3308.1348</v>
       </c>
       <c r="J12" s="1">
-        <v>105463.4431</v>
+        <v>105053.3023</v>
       </c>
       <c r="K12" s="1">
-        <v>101335.6337</v>
+        <v>101754.8312</v>
       </c>
       <c r="L12" s="1">
-        <v>10.9587</v>
+        <v>10.982</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-13718.0771</v>
+        <v>-13308.1348</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0022</v>
+        <v>-0.0026</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>11.1102</v>
       </c>
       <c r="C13" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D13" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E13" s="1">
-        <v>10493.8147</v>
+        <v>10472.641</v>
       </c>
       <c r="F13" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>116588.38</v>
+        <v>116120.6429</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>116588.38</v>
+        <v>116120.6429</v>
       </c>
       <c r="K13" s="1">
-        <v>115053.7107</v>
+        <v>115062.966</v>
       </c>
       <c r="L13" s="1">
-        <v>10.964</v>
+        <v>10.987</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0097</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,49 +3622,49 @@
         <v>10.623</v>
       </c>
       <c r="C14" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D14" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E14" s="1">
-        <v>11393.8804</v>
+        <v>11370.9118</v>
       </c>
       <c r="F14" s="1">
-        <v>-11393.8804</v>
+        <v>-11370.9118</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121037.1915</v>
+        <v>120550.9954</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>121037.1915</v>
+        <v>120550.9954</v>
       </c>
       <c r="K14" s="1">
-        <v>125053.7107</v>
+        <v>125062.966</v>
       </c>
       <c r="L14" s="1">
-        <v>10.9755</v>
+        <v>10.9985</v>
       </c>
       <c r="M14" s="1">
         <v>0.1</v>
       </c>
       <c r="N14" s="1">
-        <v>944.4433</v>
+        <v>942.5377</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121981.6348</v>
+        <v>121493.5331</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0439</v>
+        <v>-0.0442</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>10.3262</v>
       </c>
       <c r="C2" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D2" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>10.462</v>
       </c>
       <c r="C3" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D3" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E3" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="F3" s="1">
-        <v>955.8402</v>
+        <v>953.9254</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10131.5101</v>
+        <v>10091.0418</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10131.5101</v>
+        <v>10091.0418</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0132</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>10.5775</v>
       </c>
       <c r="C4" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D4" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E4" s="1">
-        <v>1924.2506</v>
+        <v>1920.3985</v>
       </c>
       <c r="F4" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20353.7611</v>
+        <v>20272.3022</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20353.7611</v>
+        <v>20272.3022</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.3937</v>
+        <v>10.4145</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.011</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>10.7066</v>
       </c>
       <c r="C5" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D5" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E5" s="1">
-        <v>2869.6536</v>
+        <v>2863.9104</v>
       </c>
       <c r="F5" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>30724.2334</v>
+        <v>30601.4553</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30724.2334</v>
+        <v>30601.4553</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.4542</v>
+        <v>10.4752</v>
       </c>
       <c r="M5" s="1">
         <v>0.2</v>
       </c>
       <c r="N5" s="1">
-        <v>346.3651</v>
+        <v>345.6717</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9653.634899999999</v>
+        <v>-9654.328299999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0122</v>
+        <v>0.0109</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>11.1511</v>
       </c>
       <c r="C6" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D6" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E6" s="1">
-        <v>3803.6569</v>
+        <v>3796.0419</v>
       </c>
       <c r="F6" s="1">
-        <v>816.7544</v>
+        <v>833.6279</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>42414.9589</v>
+        <v>42245.3911</v>
       </c>
       <c r="I6" s="1">
-        <v>346.3651</v>
+        <v>345.6717</v>
       </c>
       <c r="J6" s="1">
-        <v>42761.324</v>
+        <v>42591.0628</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.5162</v>
+        <v>10.5373</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9107.7104</v>
+        <v>-9314.541300000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.05</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>11.5294</v>
       </c>
       <c r="C7" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D7" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E7" s="1">
-        <v>4620.4114</v>
+        <v>4629.6698</v>
       </c>
       <c r="F7" s="1">
-        <v>782.7761</v>
+        <v>784.3651</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>53270.5709</v>
+        <v>53270.3696</v>
       </c>
       <c r="I7" s="1">
-        <v>1238.6547</v>
+        <v>1031.1304</v>
       </c>
       <c r="J7" s="1">
-        <v>54509.2256</v>
+        <v>54301.5</v>
       </c>
       <c r="K7" s="1">
-        <v>49107.7104</v>
+        <v>49314.5413</v>
       </c>
       <c r="L7" s="1">
-        <v>10.6284</v>
+        <v>10.6518</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9025.0167</v>
+        <v>-9061.377399999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0331</v>
+        <v>0.0325</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>10.9136</v>
       </c>
       <c r="C8" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D8" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E8" s="1">
-        <v>5403.1874</v>
+        <v>5414.0349</v>
       </c>
       <c r="F8" s="1">
-        <v>1119.1209</v>
+        <v>1094.5776</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>58968.2265</v>
+        <v>58968.5849</v>
       </c>
       <c r="I8" s="1">
-        <v>2213.638</v>
+        <v>1969.753</v>
       </c>
       <c r="J8" s="1">
-        <v>61181.8645</v>
+        <v>60938.3379</v>
       </c>
       <c r="K8" s="1">
-        <v>58132.7271</v>
+        <v>58375.9187</v>
       </c>
       <c r="L8" s="1">
-        <v>10.759</v>
+        <v>10.7823</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>2079.1851</v>
+        <v>2083.3514</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10134.4529</v>
+        <v>-9886.401599999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0516</v>
+        <v>-0.0523</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>11.2587</v>
       </c>
       <c r="C9" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D9" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E9" s="1">
-        <v>6522.3084</v>
+        <v>6508.6124</v>
       </c>
       <c r="F9" s="1">
-        <v>967.8228</v>
+        <v>996.4508</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>73432.0609</v>
+        <v>73132.071</v>
       </c>
       <c r="I9" s="1">
-        <v>2079.1851</v>
+        <v>2083.3514</v>
       </c>
       <c r="J9" s="1">
-        <v>75511.246</v>
+        <v>75215.4224</v>
       </c>
       <c r="K9" s="1">
-        <v>70346.3651</v>
+        <v>70345.67170000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.7855</v>
+        <v>10.8081</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10896.427</v>
+        <v>-11241.26</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0608</v>
+        <v>0.0603</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>11.6434</v>
       </c>
       <c r="C10" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D10" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E10" s="1">
-        <v>7490.1312</v>
+        <v>7505.0632</v>
       </c>
       <c r="F10" s="1">
-        <v>719.9549</v>
+        <v>721.4854</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>87210.5935</v>
+        <v>87209.5848</v>
       </c>
       <c r="I10" s="1">
-        <v>1182.7582</v>
+        <v>842.0914</v>
       </c>
       <c r="J10" s="1">
-        <v>88393.3517</v>
+        <v>88051.6762</v>
       </c>
       <c r="K10" s="1">
-        <v>81242.79210000001</v>
+        <v>81586.9317</v>
       </c>
       <c r="L10" s="1">
-        <v>10.8466</v>
+        <v>10.8709</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8382.723400000001</v>
+        <v>-8417.353300000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0337</v>
+        <v>0.0333</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>11.3141</v>
       </c>
       <c r="C11" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D11" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E11" s="1">
-        <v>8210.0861</v>
+        <v>8226.5486</v>
       </c>
       <c r="F11" s="1">
-        <v>1131.3348</v>
+        <v>1095.9652</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>92889.7356</v>
+        <v>92890.07309999999</v>
       </c>
       <c r="I11" s="1">
-        <v>2800.0348</v>
+        <v>2424.7381</v>
       </c>
       <c r="J11" s="1">
-        <v>95689.7703</v>
+        <v>95314.81110000001</v>
       </c>
       <c r="K11" s="1">
-        <v>89625.5154</v>
+        <v>90004.28509999999</v>
       </c>
       <c r="L11" s="1">
-        <v>10.9165</v>
+        <v>10.9407</v>
       </c>
       <c r="M11" s="1">
         <v>0.4</v>
       </c>
       <c r="N11" s="1">
-        <v>2696.4472</v>
+        <v>2701.8227</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10103.5876</v>
+        <v>-9722.915300000001</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0275</v>
+        <v>-0.0279</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>11.003</v>
       </c>
       <c r="C12" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D12" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E12" s="1">
-        <v>9341.420899999999</v>
+        <v>9322.5137</v>
       </c>
       <c r="F12" s="1">
-        <v>1153.9078</v>
+        <v>1152.0823</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>102783.6543</v>
+        <v>102370.5234</v>
       </c>
       <c r="I12" s="1">
-        <v>2696.4472</v>
+        <v>2701.8227</v>
       </c>
       <c r="J12" s="1">
-        <v>105480.1015</v>
+        <v>105072.3461</v>
       </c>
       <c r="K12" s="1">
-        <v>102425.5502</v>
+        <v>102429.0231</v>
       </c>
       <c r="L12" s="1">
-        <v>10.9647</v>
+        <v>10.9873</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12696.4472</v>
+        <v>-12701.8227</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.002</v>
+        <v>-0.0023</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>11.1102</v>
       </c>
       <c r="C13" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D13" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E13" s="1">
-        <v>10495.3287</v>
+        <v>10474.5961</v>
       </c>
       <c r="F13" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>116605.2008</v>
+        <v>116142.3211</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>116605.2008</v>
+        <v>116142.3211</v>
       </c>
       <c r="K13" s="1">
-        <v>115121.9975</v>
+        <v>115130.8459</v>
       </c>
       <c r="L13" s="1">
-        <v>10.9689</v>
+        <v>10.9914</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0097</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>10.623</v>
       </c>
       <c r="C14" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D14" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E14" s="1">
-        <v>11395.3944</v>
+        <v>11372.8669</v>
       </c>
       <c r="F14" s="1">
-        <v>-11395.3944</v>
+        <v>-11372.8669</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121053.2746</v>
+        <v>120571.7229</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>121053.2746</v>
+        <v>120571.7229</v>
       </c>
       <c r="K14" s="1">
-        <v>125121.9975</v>
+        <v>125130.8459</v>
       </c>
       <c r="L14" s="1">
-        <v>10.98</v>
+        <v>11.0026</v>
       </c>
       <c r="M14" s="1">
         <v>0.1</v>
       </c>
       <c r="N14" s="1">
-        <v>944.5796</v>
+        <v>942.7136</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121997.8542</v>
+        <v>121514.4365</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0439</v>
+        <v>-0.0442</v>
       </c>
     </row>
   </sheetData>
@@ -4454,7 +4454,7 @@
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.9919</v>
+        <v>11.0139</v>
       </c>
       <c r="D3" s="1">
-        <v>10.9626</v>
+        <v>10.9846</v>
       </c>
       <c r="E3" s="1">
-        <v>10.9678</v>
+        <v>10.9903</v>
       </c>
       <c r="F3" s="1">
-        <v>10.9755</v>
+        <v>10.9985</v>
       </c>
       <c r="G3" s="1">
-        <v>10.98</v>
+        <v>11.0026</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.0343</v>
       </c>
       <c r="C4" s="3">
-        <v>0.09760000000000001</v>
+        <v>0.0852</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0992</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="E4" s="3">
-        <v>0.09909999999999999</v>
+        <v>0.0871</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0985</v>
+        <v>0.0864</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0989</v>
+        <v>0.0867</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1087</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1174</v>
+        <v>0.1169</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1122</v>
+        <v>0.112</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1139</v>
+        <v>0.1137</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1153</v>
+        <v>0.115</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1162</v>
+        <v>0.1158</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.1288</v>
       </c>
       <c r="C6" s="4">
-        <v>0.658</v>
+        <v>0.5548999999999999</v>
       </c>
       <c r="D6" s="4">
-        <v>0.7027</v>
+        <v>0.5997</v>
       </c>
       <c r="E6" s="4">
-        <v>0.6914</v>
+        <v>0.5878</v>
       </c>
       <c r="F6" s="4">
-        <v>0.678</v>
+        <v>0.5747</v>
       </c>
       <c r="G6" s="4">
-        <v>0.6764</v>
+        <v>0.5733</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0293</v>
+        <v>0.0215</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0353</v>
+        <v>0.0276</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0335</v>
+        <v>0.0256</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0314</v>
+        <v>0.0236</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0314</v>
+        <v>0.0237</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>6065.4066</v>
+        <v>6053.1695</v>
       </c>
       <c r="D8" s="1">
-        <v>5819.6398</v>
+        <v>5831.2739</v>
       </c>
       <c r="E8" s="1">
-        <v>5908.8295</v>
+        <v>5920.6419</v>
       </c>
       <c r="F8" s="1">
-        <v>5998.1541</v>
+        <v>6005.5037</v>
       </c>
       <c r="G8" s="1">
-        <v>6066.577</v>
+        <v>6073.5595</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P99_KFSDIV.xlsx
+++ b/output/1Y_P99_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.3262</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.462</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.5775</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.7066</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.1511</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.5294</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.9136</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.2587</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.6434</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.3141</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.003</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.1102</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.623</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.3262</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.462</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.5775</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.7066</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.1511</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.5294</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.9136</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.2587</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.6434</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.3141</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.003</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.1102</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.623</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.3262</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.462</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.5775</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.7066</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.1511</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.5294</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.9136</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.2587</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.6434</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.3141</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.003</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.1102</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.623</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.3262</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.462</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.5775</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.7066</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.1511</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.5294</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.9136</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.2587</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.6434</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.3141</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.003</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.1102</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.623</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.3262</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.462</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.5775</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.7066</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.1511</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.5294</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.9136</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.2587</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.6434</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.3141</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.003</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.1102</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.623</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>6943.2483</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9625</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.022</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9931</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9641</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9635</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
